--- a/src/main/webapp/WEB-INF/dataBaseFile/data/cumnif_data.xlsx
+++ b/src/main/webapp/WEB-INF/dataBaseFile/data/cumnif_data.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="20415" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -26,15 +27,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO CUMNIF VALUES('990101','JSM10110','공통코드관리','/jsm/jsm10110/openPage')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO CUMNIF VALUES('9902','JSM10200','화면','')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO CUMNIF VALUES('990201','JSM10210','화면관리','/jsm/jsm10210/openPage')</t>
+    <t>INSERT INTO CUMNIF VALUES('990101','JSM10110','공통코드관리','/jsm/jsm10110/openPage.do')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CUMNIF VALUES('990201','JSM10210','화면관리','/jsm/jsm10210/openPage.do')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +390,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -406,12 +407,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
